--- a/results/mp/logistic/corona/confidence/42/desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>die</t>
+    <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,94 +76,97 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
 </sst>
 </file>
@@ -515,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8527397260273972</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -634,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8108108108108109</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,49 +693,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C5">
+        <v>243</v>
+      </c>
+      <c r="D5">
+        <v>243</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5">
+        <v>0.9242819843342036</v>
+      </c>
+      <c r="L5">
+        <v>354</v>
+      </c>
+      <c r="M5">
+        <v>354</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>29</v>
-      </c>
-      <c r="D5">
-        <v>29</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L5">
-        <v>115</v>
-      </c>
-      <c r="M5">
-        <v>115</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5767195767195767</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C7">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9322033898305084</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4341085271317829</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C8">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9007832898172323</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>345</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2013422818791946</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1527777777777778</v>
+        <v>0.4767441860465116</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>246</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K10">
         <v>0.8928571428571429</v>
@@ -980,17 +989,41 @@
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.2684563758389262</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>109</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8837209302325582</v>
+        <v>0.890625</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,21 +1035,45 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.175</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>63</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>297</v>
+      </c>
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8679245283018868</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L13">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="M13">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8625</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1080,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.875</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K17">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8297872340425532</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19">
-        <v>0.8205128205128205</v>
+        <v>0.84</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K21">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1262,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L24">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="M24">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>0.694560669456067</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L26">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,21 +1449,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>0.6914893617021277</v>
+        <v>0.7</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6813559322033899</v>
+        <v>0.675</v>
       </c>
       <c r="L28">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>0.651685393258427</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L29">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M29">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>0.6461538461538462</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5571428571428572</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L31">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M31">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>0.4901960784313725</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,12 +1605,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>0.4743589743589743</v>
@@ -1575,6 +1632,32 @@
       </c>
       <c r="Q33">
         <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K34">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
